--- a/CombinedActivity.xlsx
+++ b/CombinedActivity.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G628"/>
+  <dimension ref="A1:I628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,20 +440,30 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>A661_08</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>A661_03</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>A661_04</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>A661_01</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>A661_07</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
         <is>
           <t>A661_05</t>
         </is>
@@ -481,6 +491,12 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -499,9 +515,15 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>128</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>128</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -527,6 +549,12 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,6 +578,12 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -573,6 +607,12 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -596,6 +636,12 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -619,6 +665,12 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -642,6 +694,12 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -665,6 +723,12 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -677,7 +741,7 @@
         <v>139</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1166</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -686,6 +750,12 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -703,12 +773,18 @@
         <v>117</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -726,12 +802,18 @@
         <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -757,6 +839,12 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -780,6 +868,12 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -795,12 +889,18 @@
         <v>33</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -818,12 +918,18 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -841,12 +947,18 @@
         <v>262</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>145</v>
       </c>
     </row>
@@ -864,12 +976,18 @@
         <v>522</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>194</v>
       </c>
     </row>
@@ -895,6 +1013,12 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -910,12 +1034,18 @@
         <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -933,12 +1063,18 @@
         <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -956,12 +1092,18 @@
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -987,6 +1129,12 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1002,12 +1150,18 @@
         <v>415</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>605</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
+        <v>605</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1028,9 +1182,15 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>73</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
+        <v>73</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1048,12 +1208,18 @@
         <v>471</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>35</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
+        <v>35</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1074,9 +1240,15 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>19</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
+        <v>19</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1094,12 +1266,18 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>1587</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>317</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
+        <v>317</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1117,12 +1295,18 @@
         <v>161</v>
       </c>
       <c r="E30" t="n">
+        <v>161</v>
+      </c>
+      <c r="F30" t="n">
         <v>598</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>323</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
+        <v>323</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1140,12 +1324,18 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>583</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>7</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1163,12 +1353,18 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>490</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1186,12 +1382,18 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>104</v>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1215,6 +1417,12 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>117</v>
       </c>
     </row>
@@ -1238,6 +1446,12 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>579</v>
       </c>
     </row>
@@ -1261,6 +1475,12 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>127</v>
       </c>
     </row>
@@ -1284,6 +1504,12 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1309,6 +1535,12 @@
       <c r="G38" t="n">
         <v>0</v>
       </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1332,6 +1564,12 @@
       <c r="G39" t="n">
         <v>0</v>
       </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1355,6 +1593,12 @@
       <c r="G40" t="n">
         <v>0</v>
       </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1378,6 +1622,12 @@
       <c r="G41" t="n">
         <v>0</v>
       </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1401,6 +1651,12 @@
       <c r="G42" t="n">
         <v>0</v>
       </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1424,6 +1680,12 @@
       <c r="G43" t="n">
         <v>0</v>
       </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1445,6 +1707,12 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>76</v>
       </c>
     </row>
@@ -1470,6 +1738,12 @@
       <c r="G45" t="n">
         <v>0</v>
       </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1493,6 +1767,12 @@
       <c r="G46" t="n">
         <v>0</v>
       </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1508,12 +1788,18 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>243</v>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
       <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1539,6 +1825,12 @@
       <c r="G48" t="n">
         <v>0</v>
       </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1554,12 +1846,18 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>90</v>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
       <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>65</v>
       </c>
     </row>
@@ -1585,6 +1883,12 @@
       <c r="G50" t="n">
         <v>0</v>
       </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1603,9 +1907,15 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>159</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
+        <v>159</v>
+      </c>
+      <c r="I51" t="n">
         <v>34</v>
       </c>
     </row>
@@ -1631,6 +1941,12 @@
       <c r="G52" t="n">
         <v>0</v>
       </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1654,6 +1970,12 @@
       <c r="G53" t="n">
         <v>0</v>
       </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1677,6 +1999,12 @@
       <c r="G54" t="n">
         <v>0</v>
       </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1692,12 +2020,18 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
         <v>43</v>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1718,9 +2052,15 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
         <v>21</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
+        <v>21</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1741,9 +2081,15 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>26</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
+        <v>26</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1769,6 +2115,12 @@
       <c r="G58" t="n">
         <v>0</v>
       </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1784,12 +2136,18 @@
         <v>80</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>144</v>
       </c>
     </row>
@@ -1807,12 +2165,18 @@
         <v>428</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1830,12 +2194,18 @@
         <v>177</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1853,12 +2223,18 @@
         <v>177</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2252,18 @@
         <v>29</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1899,12 +2281,18 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
         <v>176</v>
       </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1922,12 +2310,18 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
         <v>88</v>
       </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
       <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1945,12 +2339,18 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
         <v>22</v>
       </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
       <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,12 +2368,18 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
         <v>35</v>
       </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1991,12 +2397,18 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
         <v>15</v>
       </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
       <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2014,12 +2426,18 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
         <v>16</v>
       </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
       <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2045,6 +2463,12 @@
       <c r="G70" t="n">
         <v>0</v>
       </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2068,6 +2492,12 @@
       <c r="G71" t="n">
         <v>0</v>
       </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2091,6 +2521,12 @@
       <c r="G72" t="n">
         <v>0</v>
       </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2114,6 +2550,12 @@
       <c r="G73" t="n">
         <v>0</v>
       </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2137,6 +2579,12 @@
       <c r="G74" t="n">
         <v>0</v>
       </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2158,6 +2606,12 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>393</v>
       </c>
     </row>
@@ -2183,6 +2637,12 @@
       <c r="G76" t="n">
         <v>0</v>
       </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2206,6 +2666,12 @@
       <c r="G77" t="n">
         <v>0</v>
       </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2229,6 +2695,12 @@
       <c r="G78" t="n">
         <v>0</v>
       </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2252,6 +2724,12 @@
       <c r="G79" t="n">
         <v>0</v>
       </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2273,6 +2751,12 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>271</v>
       </c>
     </row>
@@ -2298,6 +2782,12 @@
       <c r="G81" t="n">
         <v>0</v>
       </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2321,6 +2811,12 @@
       <c r="G82" t="n">
         <v>0</v>
       </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2342,6 +2838,12 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>108</v>
       </c>
     </row>
@@ -2362,9 +2864,15 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
         <v>18</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
+        <v>18</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2390,6 +2898,12 @@
       <c r="G85" t="n">
         <v>0</v>
       </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2413,6 +2927,12 @@
       <c r="G86" t="n">
         <v>0</v>
       </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2436,6 +2956,12 @@
       <c r="G87" t="n">
         <v>0</v>
       </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2454,9 +2980,15 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
         <v>5</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2477,9 +3009,15 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
         <v>16</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
+        <v>16</v>
+      </c>
+      <c r="I89" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2505,6 +3043,12 @@
       <c r="G90" t="n">
         <v>0</v>
       </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2520,12 +3064,18 @@
         <v>342</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,12 +3093,18 @@
         <v>172</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,12 +3122,18 @@
         <v>113</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2589,12 +3151,18 @@
         <v>149</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2612,12 +3180,18 @@
         <v>65</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2635,12 +3209,18 @@
         <v>12</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2666,6 +3246,12 @@
       <c r="G97" t="n">
         <v>0</v>
       </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2681,12 +3267,18 @@
         <v>210</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2704,12 +3296,18 @@
         <v>698</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2727,12 +3325,18 @@
         <v>315</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2750,12 +3354,18 @@
         <v>1112</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2773,12 +3383,18 @@
         <v>279</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
         <v>6</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2804,6 +3420,12 @@
       <c r="G103" t="n">
         <v>0</v>
       </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2827,6 +3449,12 @@
       <c r="G104" t="n">
         <v>0</v>
       </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2850,6 +3478,12 @@
       <c r="G105" t="n">
         <v>0</v>
       </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2873,6 +3507,12 @@
       <c r="G106" t="n">
         <v>0</v>
       </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2896,6 +3536,12 @@
       <c r="G107" t="n">
         <v>0</v>
       </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2919,6 +3565,12 @@
       <c r="G108" t="n">
         <v>0</v>
       </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2942,6 +3594,12 @@
       <c r="G109" t="n">
         <v>0</v>
       </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2965,6 +3623,12 @@
       <c r="G110" t="n">
         <v>0</v>
       </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2986,6 +3650,12 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>360</v>
       </c>
     </row>
@@ -3011,6 +3681,12 @@
       <c r="G112" t="n">
         <v>0</v>
       </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3029,9 +3705,15 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
         <v>24</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
+        <v>24</v>
+      </c>
+      <c r="I113" t="n">
         <v>181</v>
       </c>
     </row>
@@ -3057,6 +3739,12 @@
       <c r="G114" t="n">
         <v>0</v>
       </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3078,6 +3766,12 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3101,6 +3795,12 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>196</v>
       </c>
     </row>
@@ -3124,6 +3824,12 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3149,6 +3855,12 @@
       <c r="G118" t="n">
         <v>0</v>
       </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3172,6 +3884,12 @@
       <c r="G119" t="n">
         <v>0</v>
       </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3187,12 +3905,18 @@
         <v>140</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3213,9 +3937,15 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
         <v>5</v>
       </c>
-      <c r="G121" t="n">
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3233,12 +3963,18 @@
         <v>250</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
         <v>19</v>
       </c>
-      <c r="G122" t="n">
+      <c r="H122" t="n">
+        <v>19</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3264,6 +4000,12 @@
       <c r="G123" t="n">
         <v>0</v>
       </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3287,6 +4029,12 @@
       <c r="G124" t="n">
         <v>0</v>
       </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3310,6 +4058,12 @@
       <c r="G125" t="n">
         <v>0</v>
       </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3328,9 +4082,15 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
         <v>11</v>
       </c>
-      <c r="G126" t="n">
+      <c r="H126" t="n">
+        <v>11</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3356,6 +4116,12 @@
       <c r="G127" t="n">
         <v>0</v>
       </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3371,12 +4137,18 @@
         <v>155</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3394,12 +4166,18 @@
         <v>90</v>
       </c>
       <c r="E129" t="n">
+        <v>90</v>
+      </c>
+      <c r="F129" t="n">
         <v>51</v>
       </c>
-      <c r="F129" t="n">
-        <v>0</v>
-      </c>
       <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3417,12 +4195,18 @@
         <v>11</v>
       </c>
       <c r="E130" t="n">
+        <v>11</v>
+      </c>
+      <c r="F130" t="n">
         <v>26</v>
       </c>
-      <c r="F130" t="n">
-        <v>0</v>
-      </c>
       <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3440,12 +4224,18 @@
         <v>392</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
       <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3471,6 +4261,12 @@
       <c r="G132" t="n">
         <v>0</v>
       </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3494,6 +4290,12 @@
       <c r="G133" t="n">
         <v>0</v>
       </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3517,6 +4319,12 @@
       <c r="G134" t="n">
         <v>0</v>
       </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3540,6 +4348,12 @@
       <c r="G135" t="n">
         <v>0</v>
       </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3563,6 +4377,12 @@
       <c r="G136" t="n">
         <v>0</v>
       </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3586,6 +4406,12 @@
       <c r="G137" t="n">
         <v>0</v>
       </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3601,12 +4427,18 @@
         <v>57</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
       </c>
       <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3627,9 +4459,15 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
         <v>5</v>
       </c>
-      <c r="G139" t="n">
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3655,6 +4493,12 @@
       <c r="G140" t="n">
         <v>0</v>
       </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3678,6 +4522,12 @@
       <c r="G141" t="n">
         <v>0</v>
       </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3701,6 +4551,12 @@
       <c r="G142" t="n">
         <v>0</v>
       </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3724,6 +4580,12 @@
       <c r="G143" t="n">
         <v>0</v>
       </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3745,6 +4607,12 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>513</v>
       </c>
     </row>
@@ -3768,6 +4636,12 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>61</v>
       </c>
     </row>
@@ -3791,6 +4665,12 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>87</v>
       </c>
     </row>
@@ -3816,6 +4696,12 @@
       <c r="G147" t="n">
         <v>0</v>
       </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3839,6 +4725,12 @@
       <c r="G148" t="n">
         <v>0</v>
       </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3862,6 +4754,12 @@
       <c r="G149" t="n">
         <v>0</v>
       </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3885,6 +4783,12 @@
       <c r="G150" t="n">
         <v>0</v>
       </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3908,6 +4812,12 @@
       <c r="G151" t="n">
         <v>0</v>
       </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3926,9 +4836,15 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
         <v>393</v>
       </c>
-      <c r="G152" t="n">
+      <c r="H152" t="n">
+        <v>393</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3949,9 +4865,15 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
         <v>593</v>
       </c>
-      <c r="G153" t="n">
+      <c r="H153" t="n">
+        <v>593</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3972,9 +4894,15 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
         <v>314</v>
       </c>
-      <c r="G154" t="n">
+      <c r="H154" t="n">
+        <v>314</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3995,9 +4923,15 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
         <v>727</v>
       </c>
-      <c r="G155" t="n">
+      <c r="H155" t="n">
+        <v>727</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4018,9 +4952,15 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
         <v>326</v>
       </c>
-      <c r="G156" t="n">
+      <c r="H156" t="n">
+        <v>326</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4041,9 +4981,15 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
         <v>311</v>
       </c>
-      <c r="G157" t="n">
+      <c r="H157" t="n">
+        <v>311</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4064,9 +5010,15 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
         <v>178</v>
       </c>
-      <c r="G158" t="n">
+      <c r="H158" t="n">
+        <v>178</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4087,9 +5039,15 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
         <v>14</v>
       </c>
-      <c r="G159" t="n">
+      <c r="H159" t="n">
+        <v>14</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4115,6 +5073,12 @@
       <c r="G160" t="n">
         <v>0</v>
       </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4130,12 +5094,18 @@
         <v>872</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4153,12 +5123,18 @@
         <v>6</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
       </c>
       <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4184,6 +5160,12 @@
       <c r="G163" t="n">
         <v>0</v>
       </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4205,6 +5187,12 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>77</v>
       </c>
     </row>
@@ -4230,6 +5218,12 @@
       <c r="G165" t="n">
         <v>0</v>
       </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4253,6 +5247,12 @@
       <c r="G166" t="n">
         <v>0</v>
       </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4276,6 +5276,12 @@
       <c r="G167" t="n">
         <v>0</v>
       </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4291,12 +5297,18 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
         <v>27</v>
       </c>
-      <c r="F168" t="n">
-        <v>0</v>
-      </c>
       <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4314,12 +5326,18 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
         <v>643</v>
       </c>
-      <c r="F169" t="n">
-        <v>0</v>
-      </c>
       <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4337,12 +5355,18 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
         <v>625</v>
       </c>
-      <c r="F170" t="n">
-        <v>0</v>
-      </c>
       <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,12 +5384,18 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
         <v>192</v>
       </c>
-      <c r="F171" t="n">
-        <v>0</v>
-      </c>
       <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4383,12 +5413,18 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
         <v>180</v>
       </c>
-      <c r="F172" t="n">
-        <v>0</v>
-      </c>
       <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,6 +5448,12 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4435,6 +5477,12 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>116</v>
       </c>
     </row>
@@ -4458,6 +5506,12 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>125</v>
       </c>
     </row>
@@ -4483,6 +5537,12 @@
       <c r="G176" t="n">
         <v>0</v>
       </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4506,6 +5566,12 @@
       <c r="G177" t="n">
         <v>0</v>
       </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4529,6 +5595,12 @@
       <c r="G178" t="n">
         <v>0</v>
       </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4552,6 +5624,12 @@
       <c r="G179" t="n">
         <v>0</v>
       </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4573,6 +5651,12 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>37</v>
       </c>
     </row>
@@ -4598,6 +5682,12 @@
       <c r="G181" t="n">
         <v>0</v>
       </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4621,6 +5711,12 @@
       <c r="G182" t="n">
         <v>0</v>
       </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4639,9 +5735,15 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
         <v>5</v>
       </c>
-      <c r="G183" t="n">
+      <c r="H183" t="n">
+        <v>5</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4667,6 +5769,12 @@
       <c r="G184" t="n">
         <v>0</v>
       </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4682,12 +5790,18 @@
         <v>15</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4705,12 +5819,18 @@
         <v>15</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
       <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4736,6 +5856,12 @@
       <c r="G187" t="n">
         <v>0</v>
       </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4757,6 +5883,12 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>53</v>
       </c>
     </row>
@@ -4782,6 +5914,12 @@
       <c r="G189" t="n">
         <v>0</v>
       </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -4805,6 +5943,12 @@
       <c r="G190" t="n">
         <v>0</v>
       </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4828,6 +5972,12 @@
       <c r="G191" t="n">
         <v>0</v>
       </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4851,6 +6001,12 @@
       <c r="G192" t="n">
         <v>0</v>
       </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -4874,6 +6030,12 @@
       <c r="G193" t="n">
         <v>0</v>
       </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4897,6 +6059,12 @@
       <c r="G194" t="n">
         <v>0</v>
       </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4920,6 +6088,12 @@
       <c r="G195" t="n">
         <v>0</v>
       </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4943,6 +6117,12 @@
       <c r="G196" t="n">
         <v>0</v>
       </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4961,9 +6141,15 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
         <v>63</v>
       </c>
-      <c r="G197" t="n">
+      <c r="H197" t="n">
+        <v>63</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4989,6 +6175,12 @@
       <c r="G198" t="n">
         <v>0</v>
       </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5012,6 +6204,12 @@
       <c r="G199" t="n">
         <v>0</v>
       </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5033,6 +6231,12 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5050,12 +6254,18 @@
         <v>4</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
       </c>
       <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5081,6 +6291,12 @@
       <c r="G202" t="n">
         <v>0</v>
       </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5096,12 +6312,18 @@
         <v>0</v>
       </c>
       <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
         <v>84</v>
       </c>
-      <c r="F203" t="n">
-        <v>0</v>
-      </c>
       <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5125,6 +6347,12 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5150,6 +6378,12 @@
       <c r="G205" t="n">
         <v>0</v>
       </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5173,6 +6407,12 @@
       <c r="G206" t="n">
         <v>0</v>
       </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5188,12 +6428,18 @@
         <v>0</v>
       </c>
       <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
         <v>162</v>
       </c>
-      <c r="F207" t="n">
-        <v>0</v>
-      </c>
       <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5211,12 +6457,18 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
         <v>7</v>
       </c>
-      <c r="F208" t="n">
-        <v>0</v>
-      </c>
       <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>115</v>
       </c>
     </row>
@@ -5237,9 +6489,15 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="n">
         <v>11</v>
       </c>
-      <c r="G209" t="n">
+      <c r="H209" t="n">
+        <v>11</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5257,12 +6515,18 @@
         <v>105</v>
       </c>
       <c r="E210" t="n">
+        <v>105</v>
+      </c>
+      <c r="F210" t="n">
         <v>95</v>
       </c>
-      <c r="F210" t="n">
-        <v>0</v>
-      </c>
       <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>92</v>
       </c>
     </row>
@@ -5280,12 +6544,18 @@
         <v>17</v>
       </c>
       <c r="E211" t="n">
+        <v>17</v>
+      </c>
+      <c r="F211" t="n">
         <v>70</v>
       </c>
-      <c r="F211" t="n">
-        <v>0</v>
-      </c>
       <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>182</v>
       </c>
     </row>
@@ -5303,12 +6573,18 @@
         <v>35</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
       </c>
       <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5334,6 +6610,12 @@
       <c r="G213" t="n">
         <v>0</v>
       </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5357,6 +6639,12 @@
       <c r="G214" t="n">
         <v>0</v>
       </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5380,6 +6668,12 @@
       <c r="G215" t="n">
         <v>0</v>
       </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5403,6 +6697,12 @@
       <c r="G216" t="n">
         <v>0</v>
       </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5426,6 +6726,12 @@
       <c r="G217" t="n">
         <v>0</v>
       </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5449,6 +6755,12 @@
       <c r="G218" t="n">
         <v>0</v>
       </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5472,6 +6784,12 @@
       <c r="G219" t="n">
         <v>0</v>
       </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5495,6 +6813,12 @@
       <c r="G220" t="n">
         <v>0</v>
       </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5518,6 +6842,12 @@
       <c r="G221" t="n">
         <v>0</v>
       </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5541,6 +6871,12 @@
       <c r="G222" t="n">
         <v>0</v>
       </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -5564,6 +6900,12 @@
       <c r="G223" t="n">
         <v>0</v>
       </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -5587,6 +6929,12 @@
       <c r="G224" t="n">
         <v>0</v>
       </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -5610,6 +6958,12 @@
       <c r="G225" t="n">
         <v>0</v>
       </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -5633,6 +6987,12 @@
       <c r="G226" t="n">
         <v>0</v>
       </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -5648,12 +7008,18 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
         <v>71</v>
       </c>
-      <c r="F227" t="n">
-        <v>0</v>
-      </c>
       <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5679,6 +7045,12 @@
       <c r="G228" t="n">
         <v>0</v>
       </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -5702,6 +7074,12 @@
       <c r="G229" t="n">
         <v>0</v>
       </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -5725,6 +7103,12 @@
       <c r="G230" t="n">
         <v>0</v>
       </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -5748,6 +7132,12 @@
       <c r="G231" t="n">
         <v>0</v>
       </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -5771,6 +7161,12 @@
       <c r="G232" t="n">
         <v>0</v>
       </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -5794,6 +7190,12 @@
       <c r="G233" t="n">
         <v>0</v>
       </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -5817,6 +7219,12 @@
       <c r="G234" t="n">
         <v>0</v>
       </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -5840,6 +7248,12 @@
       <c r="G235" t="n">
         <v>0</v>
       </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -5863,6 +7277,12 @@
       <c r="G236" t="n">
         <v>0</v>
       </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -5886,6 +7306,12 @@
       <c r="G237" t="n">
         <v>0</v>
       </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -5909,6 +7335,12 @@
       <c r="G238" t="n">
         <v>0</v>
       </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -5932,6 +7364,12 @@
       <c r="G239" t="n">
         <v>0</v>
       </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -5947,12 +7385,18 @@
         <v>246</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
       </c>
       <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5970,12 +7414,18 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" t="n">
         <v>226</v>
       </c>
-      <c r="F241" t="n">
-        <v>0</v>
-      </c>
       <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6001,6 +7451,12 @@
       <c r="G242" t="n">
         <v>0</v>
       </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6024,6 +7480,12 @@
       <c r="G243" t="n">
         <v>0</v>
       </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6039,12 +7501,18 @@
         <v>0</v>
       </c>
       <c r="E244" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" t="n">
         <v>155</v>
       </c>
-      <c r="F244" t="n">
-        <v>0</v>
-      </c>
       <c r="G244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6070,6 +7538,12 @@
       <c r="G245" t="n">
         <v>0</v>
       </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6093,6 +7567,12 @@
       <c r="G246" t="n">
         <v>0</v>
       </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6116,6 +7596,12 @@
       <c r="G247" t="n">
         <v>0</v>
       </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6139,6 +7625,12 @@
       <c r="G248" t="n">
         <v>0</v>
       </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6162,6 +7654,12 @@
       <c r="G249" t="n">
         <v>0</v>
       </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6185,6 +7683,12 @@
       <c r="G250" t="n">
         <v>0</v>
       </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6208,6 +7712,12 @@
       <c r="G251" t="n">
         <v>0</v>
       </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6231,6 +7741,12 @@
       <c r="G252" t="n">
         <v>0</v>
       </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6254,6 +7770,12 @@
       <c r="G253" t="n">
         <v>0</v>
       </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6269,12 +7791,18 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
         <v>88</v>
       </c>
-      <c r="F254" t="n">
-        <v>0</v>
-      </c>
       <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>49</v>
       </c>
     </row>
@@ -6295,9 +7823,15 @@
         <v>0</v>
       </c>
       <c r="F255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" t="n">
         <v>246</v>
       </c>
-      <c r="G255" t="n">
+      <c r="H255" t="n">
+        <v>246</v>
+      </c>
+      <c r="I255" t="n">
         <v>26</v>
       </c>
     </row>
@@ -6318,9 +7852,15 @@
         <v>0</v>
       </c>
       <c r="F256" t="n">
+        <v>0</v>
+      </c>
+      <c r="G256" t="n">
         <v>714</v>
       </c>
-      <c r="G256" t="n">
+      <c r="H256" t="n">
+        <v>714</v>
+      </c>
+      <c r="I256" t="n">
         <v>122</v>
       </c>
     </row>
@@ -6346,6 +7886,12 @@
       <c r="G257" t="n">
         <v>0</v>
       </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -6367,6 +7913,12 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>62</v>
       </c>
     </row>
@@ -6392,6 +7944,12 @@
       <c r="G259" t="n">
         <v>0</v>
       </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -6415,6 +7973,12 @@
       <c r="G260" t="n">
         <v>0</v>
       </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -6438,6 +8002,12 @@
       <c r="G261" t="n">
         <v>0</v>
       </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -6459,6 +8029,12 @@
         <v>0</v>
       </c>
       <c r="G262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>277</v>
       </c>
     </row>
@@ -6484,6 +8060,12 @@
       <c r="G263" t="n">
         <v>0</v>
       </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -6499,12 +8081,18 @@
         <v>100</v>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
       </c>
       <c r="G264" t="n">
+        <v>0</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6522,12 +8110,18 @@
         <v>0</v>
       </c>
       <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="n">
         <v>33</v>
       </c>
-      <c r="F265" t="n">
-        <v>0</v>
-      </c>
       <c r="G265" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6545,12 +8139,18 @@
         <v>0</v>
       </c>
       <c r="E266" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" t="n">
         <v>191</v>
       </c>
-      <c r="F266" t="n">
-        <v>0</v>
-      </c>
       <c r="G266" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6576,6 +8176,12 @@
       <c r="G267" t="n">
         <v>0</v>
       </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -6599,6 +8205,12 @@
       <c r="G268" t="n">
         <v>0</v>
       </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -6622,6 +8234,12 @@
       <c r="G269" t="n">
         <v>0</v>
       </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -6637,12 +8255,18 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
         <v>14</v>
       </c>
-      <c r="F270" t="n">
-        <v>0</v>
-      </c>
       <c r="G270" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6668,6 +8292,12 @@
       <c r="G271" t="n">
         <v>0</v>
       </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -6691,6 +8321,12 @@
       <c r="G272" t="n">
         <v>0</v>
       </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -6714,6 +8350,12 @@
       <c r="G273" t="n">
         <v>0</v>
       </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -6737,6 +8379,12 @@
       <c r="G274" t="n">
         <v>0</v>
       </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -6760,6 +8408,12 @@
       <c r="G275" t="n">
         <v>0</v>
       </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -6783,6 +8437,12 @@
       <c r="G276" t="n">
         <v>0</v>
       </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -6806,6 +8466,12 @@
       <c r="G277" t="n">
         <v>0</v>
       </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -6827,6 +8493,12 @@
         <v>0</v>
       </c>
       <c r="G278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
         <v>16</v>
       </c>
     </row>
@@ -6852,6 +8524,12 @@
       <c r="G279" t="n">
         <v>0</v>
       </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -6875,6 +8553,12 @@
       <c r="G280" t="n">
         <v>0</v>
       </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -6896,6 +8580,12 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
         <v>106</v>
       </c>
     </row>
@@ -6913,12 +8603,18 @@
         <v>51</v>
       </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
         <v>13</v>
       </c>
     </row>
@@ -6944,6 +8640,12 @@
       <c r="G283" t="n">
         <v>0</v>
       </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -6967,6 +8669,12 @@
       <c r="G284" t="n">
         <v>0</v>
       </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -6988,6 +8696,12 @@
         <v>0</v>
       </c>
       <c r="G285" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
         <v>277</v>
       </c>
     </row>
@@ -7013,6 +8727,12 @@
       <c r="G286" t="n">
         <v>0</v>
       </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -7036,6 +8756,12 @@
       <c r="G287" t="n">
         <v>0</v>
       </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7059,6 +8785,12 @@
       <c r="G288" t="n">
         <v>0</v>
       </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -7074,12 +8806,18 @@
         <v>44</v>
       </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
       </c>
       <c r="G289" t="n">
+        <v>0</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7105,6 +8843,12 @@
       <c r="G290" t="n">
         <v>0</v>
       </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -7128,6 +8872,12 @@
       <c r="G291" t="n">
         <v>0</v>
       </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -7151,6 +8901,12 @@
       <c r="G292" t="n">
         <v>0</v>
       </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -7174,6 +8930,12 @@
       <c r="G293" t="n">
         <v>0</v>
       </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -7197,6 +8959,12 @@
       <c r="G294" t="n">
         <v>0</v>
       </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -7212,12 +8980,18 @@
         <v>11</v>
       </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="n">
+        <v>0</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7243,6 +9017,12 @@
       <c r="G296" t="n">
         <v>0</v>
       </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -7266,6 +9046,12 @@
       <c r="G297" t="n">
         <v>0</v>
       </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -7289,6 +9075,12 @@
       <c r="G298" t="n">
         <v>0</v>
       </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -7304,12 +9096,18 @@
         <v>0</v>
       </c>
       <c r="E299" t="n">
+        <v>0</v>
+      </c>
+      <c r="F299" t="n">
         <v>10</v>
       </c>
-      <c r="F299" t="n">
-        <v>0</v>
-      </c>
       <c r="G299" t="n">
+        <v>0</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7335,6 +9133,12 @@
       <c r="G300" t="n">
         <v>0</v>
       </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -7358,6 +9162,12 @@
       <c r="G301" t="n">
         <v>0</v>
       </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -7381,6 +9191,12 @@
       <c r="G302" t="n">
         <v>0</v>
       </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -7399,9 +9215,15 @@
         <v>0</v>
       </c>
       <c r="F303" t="n">
+        <v>0</v>
+      </c>
+      <c r="G303" t="n">
         <v>66</v>
       </c>
-      <c r="G303" t="n">
+      <c r="H303" t="n">
+        <v>66</v>
+      </c>
+      <c r="I303" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7427,6 +9249,12 @@
       <c r="G304" t="n">
         <v>0</v>
       </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -7450,6 +9278,12 @@
       <c r="G305" t="n">
         <v>0</v>
       </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -7473,6 +9307,12 @@
       <c r="G306" t="n">
         <v>0</v>
       </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -7496,6 +9336,12 @@
       <c r="G307" t="n">
         <v>0</v>
       </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -7519,6 +9365,12 @@
       <c r="G308" t="n">
         <v>0</v>
       </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -7542,6 +9394,12 @@
       <c r="G309" t="n">
         <v>0</v>
       </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -7565,6 +9423,12 @@
       <c r="G310" t="n">
         <v>0</v>
       </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -7586,6 +9450,12 @@
         <v>0</v>
       </c>
       <c r="G311" t="n">
+        <v>0</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="n">
         <v>191</v>
       </c>
     </row>
@@ -7611,6 +9481,12 @@
       <c r="G312" t="n">
         <v>0</v>
       </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -7634,6 +9510,12 @@
       <c r="G313" t="n">
         <v>0</v>
       </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -7657,6 +9539,12 @@
       <c r="G314" t="n">
         <v>0</v>
       </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -7680,6 +9568,12 @@
       <c r="G315" t="n">
         <v>0</v>
       </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -7703,6 +9597,12 @@
       <c r="G316" t="n">
         <v>0</v>
       </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -7726,6 +9626,12 @@
       <c r="G317" t="n">
         <v>0</v>
       </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -7749,6 +9655,12 @@
       <c r="G318" t="n">
         <v>0</v>
       </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -7772,6 +9684,12 @@
       <c r="G319" t="n">
         <v>0</v>
       </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -7795,6 +9713,12 @@
       <c r="G320" t="n">
         <v>0</v>
       </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -7818,6 +9742,12 @@
       <c r="G321" t="n">
         <v>0</v>
       </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -7841,6 +9771,12 @@
       <c r="G322" t="n">
         <v>0</v>
       </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -7864,6 +9800,12 @@
       <c r="G323" t="n">
         <v>0</v>
       </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -7887,6 +9829,12 @@
       <c r="G324" t="n">
         <v>0</v>
       </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -7910,6 +9858,12 @@
       <c r="G325" t="n">
         <v>0</v>
       </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -7925,12 +9879,18 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
+        <v>0</v>
+      </c>
+      <c r="F326" t="n">
         <v>524</v>
       </c>
-      <c r="F326" t="n">
-        <v>0</v>
-      </c>
       <c r="G326" t="n">
+        <v>0</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7948,12 +9908,18 @@
         <v>74</v>
       </c>
       <c r="E327" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
       </c>
       <c r="G327" t="n">
+        <v>0</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7977,6 +9943,12 @@
         <v>0</v>
       </c>
       <c r="G328" t="n">
+        <v>0</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="n">
         <v>135</v>
       </c>
     </row>
@@ -8000,6 +9972,12 @@
         <v>0</v>
       </c>
       <c r="G329" t="n">
+        <v>0</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="n">
         <v>175</v>
       </c>
     </row>
@@ -8025,6 +10003,12 @@
       <c r="G330" t="n">
         <v>0</v>
       </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -8048,6 +10032,12 @@
       <c r="G331" t="n">
         <v>0</v>
       </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -8071,6 +10061,12 @@
       <c r="G332" t="n">
         <v>0</v>
       </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -8094,6 +10090,12 @@
       <c r="G333" t="n">
         <v>0</v>
       </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -8112,9 +10114,15 @@
         <v>0</v>
       </c>
       <c r="F334" t="n">
+        <v>0</v>
+      </c>
+      <c r="G334" t="n">
         <v>394</v>
       </c>
-      <c r="G334" t="n">
+      <c r="H334" t="n">
+        <v>394</v>
+      </c>
+      <c r="I334" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8138,6 +10146,12 @@
         <v>0</v>
       </c>
       <c r="G335" t="n">
+        <v>0</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="n">
         <v>62</v>
       </c>
     </row>
@@ -8155,12 +10169,18 @@
         <v>392</v>
       </c>
       <c r="E336" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
       </c>
       <c r="G336" t="n">
+        <v>0</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8178,12 +10198,18 @@
         <v>288</v>
       </c>
       <c r="E337" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
       </c>
       <c r="G337" t="n">
+        <v>0</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8207,6 +10233,12 @@
         <v>0</v>
       </c>
       <c r="G338" t="n">
+        <v>0</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="n">
         <v>393</v>
       </c>
     </row>
@@ -8232,6 +10264,12 @@
       <c r="G339" t="n">
         <v>0</v>
       </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -8255,6 +10293,12 @@
       <c r="G340" t="n">
         <v>0</v>
       </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -8278,6 +10322,12 @@
       <c r="G341" t="n">
         <v>0</v>
       </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -8301,6 +10351,12 @@
       <c r="G342" t="n">
         <v>0</v>
       </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -8324,6 +10380,12 @@
       <c r="G343" t="n">
         <v>0</v>
       </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -8347,6 +10409,12 @@
       <c r="G344" t="n">
         <v>0</v>
       </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -8370,6 +10438,12 @@
       <c r="G345" t="n">
         <v>0</v>
       </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -8393,6 +10467,12 @@
       <c r="G346" t="n">
         <v>0</v>
       </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -8416,6 +10496,12 @@
       <c r="G347" t="n">
         <v>0</v>
       </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -8439,6 +10525,12 @@
       <c r="G348" t="n">
         <v>0</v>
       </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -8462,6 +10554,12 @@
       <c r="G349" t="n">
         <v>0</v>
       </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -8485,6 +10583,12 @@
       <c r="G350" t="n">
         <v>0</v>
       </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -8508,6 +10612,12 @@
       <c r="G351" t="n">
         <v>0</v>
       </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -8531,6 +10641,12 @@
       <c r="G352" t="n">
         <v>0</v>
       </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -8554,6 +10670,12 @@
       <c r="G353" t="n">
         <v>0</v>
       </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -8575,6 +10697,12 @@
         <v>0</v>
       </c>
       <c r="G354" t="n">
+        <v>0</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="n">
         <v>298</v>
       </c>
     </row>
@@ -8600,6 +10728,12 @@
       <c r="G355" t="n">
         <v>0</v>
       </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -8623,6 +10757,12 @@
       <c r="G356" t="n">
         <v>0</v>
       </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -8646,6 +10786,12 @@
       <c r="G357" t="n">
         <v>0</v>
       </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -8669,6 +10815,12 @@
       <c r="G358" t="n">
         <v>0</v>
       </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -8692,6 +10844,12 @@
       <c r="G359" t="n">
         <v>0</v>
       </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -8715,6 +10873,12 @@
       <c r="G360" t="n">
         <v>0</v>
       </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -8738,6 +10902,12 @@
       <c r="G361" t="n">
         <v>0</v>
       </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -8761,6 +10931,12 @@
       <c r="G362" t="n">
         <v>0</v>
       </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -8779,9 +10955,15 @@
         <v>0</v>
       </c>
       <c r="F363" t="n">
+        <v>0</v>
+      </c>
+      <c r="G363" t="n">
         <v>63</v>
       </c>
-      <c r="G363" t="n">
+      <c r="H363" t="n">
+        <v>63</v>
+      </c>
+      <c r="I363" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8802,9 +10984,15 @@
         <v>0</v>
       </c>
       <c r="F364" t="n">
+        <v>0</v>
+      </c>
+      <c r="G364" t="n">
         <v>4</v>
       </c>
-      <c r="G364" t="n">
+      <c r="H364" t="n">
+        <v>4</v>
+      </c>
+      <c r="I364" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8830,6 +11018,12 @@
       <c r="G365" t="n">
         <v>0</v>
       </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -8845,12 +11039,18 @@
         <v>139</v>
       </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
       </c>
       <c r="G366" t="n">
+        <v>0</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="n">
         <v>241</v>
       </c>
     </row>
@@ -8876,6 +11076,12 @@
       <c r="G367" t="n">
         <v>0</v>
       </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -8897,6 +11103,12 @@
         <v>0</v>
       </c>
       <c r="G368" t="n">
+        <v>0</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="n">
         <v>164</v>
       </c>
     </row>
@@ -8920,6 +11132,12 @@
         <v>0</v>
       </c>
       <c r="G369" t="n">
+        <v>0</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="n">
         <v>236</v>
       </c>
     </row>
@@ -8945,6 +11163,12 @@
       <c r="G370" t="n">
         <v>0</v>
       </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -8968,6 +11192,12 @@
       <c r="G371" t="n">
         <v>0</v>
       </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -8991,6 +11221,12 @@
       <c r="G372" t="n">
         <v>0</v>
       </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -9014,6 +11250,12 @@
       <c r="G373" t="n">
         <v>0</v>
       </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -9037,6 +11279,12 @@
       <c r="G374" t="n">
         <v>0</v>
       </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -9060,6 +11308,12 @@
       <c r="G375" t="n">
         <v>0</v>
       </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -9083,6 +11337,12 @@
       <c r="G376" t="n">
         <v>0</v>
       </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -9106,6 +11366,12 @@
       <c r="G377" t="n">
         <v>0</v>
       </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -9129,6 +11395,12 @@
       <c r="G378" t="n">
         <v>0</v>
       </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -9152,6 +11424,12 @@
       <c r="G379" t="n">
         <v>0</v>
       </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -9167,12 +11445,18 @@
         <v>117</v>
       </c>
       <c r="E380" t="n">
+        <v>117</v>
+      </c>
+      <c r="F380" t="n">
         <v>338</v>
       </c>
-      <c r="F380" t="n">
-        <v>0</v>
-      </c>
       <c r="G380" t="n">
+        <v>0</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="n">
         <v>520</v>
       </c>
     </row>
@@ -9190,12 +11474,18 @@
         <v>940</v>
       </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
       </c>
       <c r="G381" t="n">
+        <v>0</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="n">
         <v>365</v>
       </c>
     </row>
@@ -9219,6 +11509,12 @@
         <v>0</v>
       </c>
       <c r="G382" t="n">
+        <v>0</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="n">
         <v>267</v>
       </c>
     </row>
@@ -9242,6 +11538,12 @@
         <v>0</v>
       </c>
       <c r="G383" t="n">
+        <v>0</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="n">
         <v>195</v>
       </c>
     </row>
@@ -9265,6 +11567,12 @@
         <v>0</v>
       </c>
       <c r="G384" t="n">
+        <v>0</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="n">
         <v>818</v>
       </c>
     </row>
@@ -9288,6 +11596,12 @@
         <v>0</v>
       </c>
       <c r="G385" t="n">
+        <v>0</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="n">
         <v>292</v>
       </c>
     </row>
@@ -9311,6 +11625,12 @@
         <v>0</v>
       </c>
       <c r="G386" t="n">
+        <v>0</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="n">
         <v>511</v>
       </c>
     </row>
@@ -9334,6 +11654,12 @@
         <v>0</v>
       </c>
       <c r="G387" t="n">
+        <v>0</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="n">
         <v>1146</v>
       </c>
     </row>
@@ -9357,6 +11683,12 @@
         <v>0</v>
       </c>
       <c r="G388" t="n">
+        <v>0</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="n">
         <v>879</v>
       </c>
     </row>
@@ -9380,6 +11712,12 @@
         <v>0</v>
       </c>
       <c r="G389" t="n">
+        <v>0</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="n">
         <v>727</v>
       </c>
     </row>
@@ -9405,6 +11743,12 @@
       <c r="G390" t="n">
         <v>0</v>
       </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -9428,6 +11772,12 @@
       <c r="G391" t="n">
         <v>0</v>
       </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -9451,6 +11801,12 @@
       <c r="G392" t="n">
         <v>0</v>
       </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -9474,6 +11830,12 @@
       <c r="G393" t="n">
         <v>0</v>
       </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -9497,6 +11859,12 @@
       <c r="G394" t="n">
         <v>0</v>
       </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -9520,6 +11888,12 @@
       <c r="G395" t="n">
         <v>0</v>
       </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -9543,6 +11917,12 @@
       <c r="G396" t="n">
         <v>0</v>
       </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -9566,6 +11946,12 @@
       <c r="G397" t="n">
         <v>0</v>
       </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -9589,6 +11975,12 @@
       <c r="G398" t="n">
         <v>0</v>
       </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -9612,6 +12004,12 @@
       <c r="G399" t="n">
         <v>0</v>
       </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -9635,6 +12033,12 @@
       <c r="G400" t="n">
         <v>0</v>
       </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -9658,6 +12062,12 @@
       <c r="G401" t="n">
         <v>0</v>
       </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -9681,6 +12091,12 @@
       <c r="G402" t="n">
         <v>0</v>
       </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -9704,6 +12120,12 @@
       <c r="G403" t="n">
         <v>0</v>
       </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -9727,6 +12149,12 @@
       <c r="G404" t="n">
         <v>0</v>
       </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -9750,6 +12178,12 @@
       <c r="G405" t="n">
         <v>0</v>
       </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -9773,6 +12207,12 @@
       <c r="G406" t="n">
         <v>0</v>
       </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -9796,6 +12236,12 @@
       <c r="G407" t="n">
         <v>0</v>
       </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -9819,6 +12265,12 @@
       <c r="G408" t="n">
         <v>0</v>
       </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -9842,6 +12294,12 @@
       <c r="G409" t="n">
         <v>0</v>
       </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -9865,6 +12323,12 @@
       <c r="G410" t="n">
         <v>0</v>
       </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -9888,6 +12352,12 @@
       <c r="G411" t="n">
         <v>0</v>
       </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -9911,6 +12381,12 @@
       <c r="G412" t="n">
         <v>0</v>
       </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -9934,6 +12410,12 @@
       <c r="G413" t="n">
         <v>0</v>
       </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -9957,6 +12439,12 @@
       <c r="G414" t="n">
         <v>0</v>
       </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -9980,6 +12468,12 @@
       <c r="G415" t="n">
         <v>0</v>
       </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -10003,6 +12497,12 @@
       <c r="G416" t="n">
         <v>0</v>
       </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -10026,6 +12526,12 @@
       <c r="G417" t="n">
         <v>0</v>
       </c>
+      <c r="H417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -10049,6 +12555,12 @@
       <c r="G418" t="n">
         <v>0</v>
       </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -10072,6 +12584,12 @@
       <c r="G419" t="n">
         <v>0</v>
       </c>
+      <c r="H419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -10095,6 +12613,12 @@
       <c r="G420" t="n">
         <v>0</v>
       </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -10118,6 +12642,12 @@
       <c r="G421" t="n">
         <v>0</v>
       </c>
+      <c r="H421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -10141,6 +12671,12 @@
       <c r="G422" t="n">
         <v>0</v>
       </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -10164,6 +12700,12 @@
       <c r="G423" t="n">
         <v>0</v>
       </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -10187,6 +12729,12 @@
       <c r="G424" t="n">
         <v>0</v>
       </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -10210,6 +12758,12 @@
       <c r="G425" t="n">
         <v>0</v>
       </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -10233,6 +12787,12 @@
       <c r="G426" t="n">
         <v>0</v>
       </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -10256,6 +12816,12 @@
       <c r="G427" t="n">
         <v>0</v>
       </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -10279,6 +12845,12 @@
       <c r="G428" t="n">
         <v>0</v>
       </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -10302,6 +12874,12 @@
       <c r="G429" t="n">
         <v>0</v>
       </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -10325,6 +12903,12 @@
       <c r="G430" t="n">
         <v>0</v>
       </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -10348,6 +12932,12 @@
       <c r="G431" t="n">
         <v>0</v>
       </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -10371,6 +12961,12 @@
       <c r="G432" t="n">
         <v>0</v>
       </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -10394,6 +12990,12 @@
       <c r="G433" t="n">
         <v>0</v>
       </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -10417,6 +13019,12 @@
       <c r="G434" t="n">
         <v>0</v>
       </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -10440,6 +13048,12 @@
       <c r="G435" t="n">
         <v>0</v>
       </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -10463,6 +13077,12 @@
       <c r="G436" t="n">
         <v>0</v>
       </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -10486,6 +13106,12 @@
       <c r="G437" t="n">
         <v>0</v>
       </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -10509,6 +13135,12 @@
       <c r="G438" t="n">
         <v>0</v>
       </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -10532,6 +13164,12 @@
       <c r="G439" t="n">
         <v>0</v>
       </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -10555,6 +13193,12 @@
       <c r="G440" t="n">
         <v>0</v>
       </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -10573,9 +13217,15 @@
         <v>0</v>
       </c>
       <c r="F441" t="n">
+        <v>0</v>
+      </c>
+      <c r="G441" t="n">
         <v>12</v>
       </c>
-      <c r="G441" t="n">
+      <c r="H441" t="n">
+        <v>12</v>
+      </c>
+      <c r="I441" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10596,9 +13246,15 @@
         <v>0</v>
       </c>
       <c r="F442" t="n">
+        <v>0</v>
+      </c>
+      <c r="G442" t="n">
         <v>155</v>
       </c>
-      <c r="G442" t="n">
+      <c r="H442" t="n">
+        <v>155</v>
+      </c>
+      <c r="I442" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10619,9 +13275,15 @@
         <v>0</v>
       </c>
       <c r="F443" t="n">
+        <v>0</v>
+      </c>
+      <c r="G443" t="n">
         <v>32</v>
       </c>
-      <c r="G443" t="n">
+      <c r="H443" t="n">
+        <v>32</v>
+      </c>
+      <c r="I443" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10647,6 +13309,12 @@
       <c r="G444" t="n">
         <v>0</v>
       </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -10670,6 +13338,12 @@
       <c r="G445" t="n">
         <v>0</v>
       </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -10693,6 +13367,12 @@
       <c r="G446" t="n">
         <v>0</v>
       </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -10716,6 +13396,12 @@
       <c r="G447" t="n">
         <v>0</v>
       </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -10739,6 +13425,12 @@
       <c r="G448" t="n">
         <v>0</v>
       </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -10762,6 +13454,12 @@
       <c r="G449" t="n">
         <v>0</v>
       </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -10785,6 +13483,12 @@
       <c r="G450" t="n">
         <v>0</v>
       </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -10808,6 +13512,12 @@
       <c r="G451" t="n">
         <v>0</v>
       </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -10831,6 +13541,12 @@
       <c r="G452" t="n">
         <v>0</v>
       </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -10854,6 +13570,12 @@
       <c r="G453" t="n">
         <v>0</v>
       </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -10877,6 +13599,12 @@
       <c r="G454" t="n">
         <v>0</v>
       </c>
+      <c r="H454" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -10900,6 +13628,12 @@
       <c r="G455" t="n">
         <v>0</v>
       </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -10923,6 +13657,12 @@
       <c r="G456" t="n">
         <v>0</v>
       </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -10946,6 +13686,12 @@
       <c r="G457" t="n">
         <v>0</v>
       </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -10969,6 +13715,12 @@
       <c r="G458" t="n">
         <v>0</v>
       </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -10992,6 +13744,12 @@
       <c r="G459" t="n">
         <v>0</v>
       </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -11015,6 +13773,12 @@
       <c r="G460" t="n">
         <v>0</v>
       </c>
+      <c r="H460" t="n">
+        <v>0</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -11038,6 +13802,12 @@
       <c r="G461" t="n">
         <v>0</v>
       </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -11061,6 +13831,12 @@
       <c r="G462" t="n">
         <v>0</v>
       </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -11084,6 +13860,12 @@
       <c r="G463" t="n">
         <v>0</v>
       </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -11107,6 +13889,12 @@
       <c r="G464" t="n">
         <v>0</v>
       </c>
+      <c r="H464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -11130,6 +13918,12 @@
       <c r="G465" t="n">
         <v>0</v>
       </c>
+      <c r="H465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -11153,6 +13947,12 @@
       <c r="G466" t="n">
         <v>0</v>
       </c>
+      <c r="H466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -11176,6 +13976,12 @@
       <c r="G467" t="n">
         <v>0</v>
       </c>
+      <c r="H467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -11199,6 +14005,12 @@
       <c r="G468" t="n">
         <v>0</v>
       </c>
+      <c r="H468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -11222,6 +14034,12 @@
       <c r="G469" t="n">
         <v>0</v>
       </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -11245,6 +14063,12 @@
       <c r="G470" t="n">
         <v>0</v>
       </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -11268,6 +14092,12 @@
       <c r="G471" t="n">
         <v>0</v>
       </c>
+      <c r="H471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -11291,6 +14121,12 @@
       <c r="G472" t="n">
         <v>0</v>
       </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -11314,6 +14150,12 @@
       <c r="G473" t="n">
         <v>0</v>
       </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -11337,6 +14179,12 @@
       <c r="G474" t="n">
         <v>0</v>
       </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -11360,6 +14208,12 @@
       <c r="G475" t="n">
         <v>0</v>
       </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -11383,6 +14237,12 @@
       <c r="G476" t="n">
         <v>0</v>
       </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -11406,6 +14266,12 @@
       <c r="G477" t="n">
         <v>0</v>
       </c>
+      <c r="H477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -11429,6 +14295,12 @@
       <c r="G478" t="n">
         <v>0</v>
       </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -11452,6 +14324,12 @@
       <c r="G479" t="n">
         <v>0</v>
       </c>
+      <c r="H479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -11475,6 +14353,12 @@
       <c r="G480" t="n">
         <v>0</v>
       </c>
+      <c r="H480" t="n">
+        <v>0</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -11498,6 +14382,12 @@
       <c r="G481" t="n">
         <v>0</v>
       </c>
+      <c r="H481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -11521,6 +14411,12 @@
       <c r="G482" t="n">
         <v>0</v>
       </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -11544,6 +14440,12 @@
       <c r="G483" t="n">
         <v>0</v>
       </c>
+      <c r="H483" t="n">
+        <v>0</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -11567,6 +14469,12 @@
       <c r="G484" t="n">
         <v>0</v>
       </c>
+      <c r="H484" t="n">
+        <v>0</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -11590,6 +14498,12 @@
       <c r="G485" t="n">
         <v>0</v>
       </c>
+      <c r="H485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -11613,6 +14527,12 @@
       <c r="G486" t="n">
         <v>0</v>
       </c>
+      <c r="H486" t="n">
+        <v>0</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -11636,6 +14556,12 @@
       <c r="G487" t="n">
         <v>0</v>
       </c>
+      <c r="H487" t="n">
+        <v>0</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -11659,6 +14585,12 @@
       <c r="G488" t="n">
         <v>0</v>
       </c>
+      <c r="H488" t="n">
+        <v>0</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -11682,6 +14614,12 @@
       <c r="G489" t="n">
         <v>0</v>
       </c>
+      <c r="H489" t="n">
+        <v>0</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -11705,6 +14643,12 @@
       <c r="G490" t="n">
         <v>0</v>
       </c>
+      <c r="H490" t="n">
+        <v>0</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -11723,9 +14667,15 @@
         <v>0</v>
       </c>
       <c r="F491" t="n">
+        <v>0</v>
+      </c>
+      <c r="G491" t="n">
         <v>274</v>
       </c>
-      <c r="G491" t="n">
+      <c r="H491" t="n">
+        <v>274</v>
+      </c>
+      <c r="I491" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11751,6 +14701,12 @@
       <c r="G492" t="n">
         <v>0</v>
       </c>
+      <c r="H492" t="n">
+        <v>0</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -11774,6 +14730,12 @@
       <c r="G493" t="n">
         <v>0</v>
       </c>
+      <c r="H493" t="n">
+        <v>0</v>
+      </c>
+      <c r="I493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -11797,6 +14759,12 @@
       <c r="G494" t="n">
         <v>0</v>
       </c>
+      <c r="H494" t="n">
+        <v>0</v>
+      </c>
+      <c r="I494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -11820,6 +14788,12 @@
       <c r="G495" t="n">
         <v>0</v>
       </c>
+      <c r="H495" t="n">
+        <v>0</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -11838,9 +14812,15 @@
         <v>0</v>
       </c>
       <c r="F496" t="n">
+        <v>0</v>
+      </c>
+      <c r="G496" t="n">
         <v>682</v>
       </c>
-      <c r="G496" t="n">
+      <c r="H496" t="n">
+        <v>682</v>
+      </c>
+      <c r="I496" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11866,6 +14846,12 @@
       <c r="G497" t="n">
         <v>0</v>
       </c>
+      <c r="H497" t="n">
+        <v>0</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -11889,6 +14875,12 @@
       <c r="G498" t="n">
         <v>0</v>
       </c>
+      <c r="H498" t="n">
+        <v>0</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -11912,6 +14904,12 @@
       <c r="G499" t="n">
         <v>0</v>
       </c>
+      <c r="H499" t="n">
+        <v>0</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -11935,6 +14933,12 @@
       <c r="G500" t="n">
         <v>0</v>
       </c>
+      <c r="H500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -11958,6 +14962,12 @@
       <c r="G501" t="n">
         <v>0</v>
       </c>
+      <c r="H501" t="n">
+        <v>0</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -11981,6 +14991,12 @@
       <c r="G502" t="n">
         <v>0</v>
       </c>
+      <c r="H502" t="n">
+        <v>0</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -12004,6 +15020,12 @@
       <c r="G503" t="n">
         <v>0</v>
       </c>
+      <c r="H503" t="n">
+        <v>0</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -12027,6 +15049,12 @@
       <c r="G504" t="n">
         <v>0</v>
       </c>
+      <c r="H504" t="n">
+        <v>0</v>
+      </c>
+      <c r="I504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -12050,6 +15078,12 @@
       <c r="G505" t="n">
         <v>0</v>
       </c>
+      <c r="H505" t="n">
+        <v>0</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -12073,6 +15107,12 @@
       <c r="G506" t="n">
         <v>0</v>
       </c>
+      <c r="H506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -12096,6 +15136,12 @@
       <c r="G507" t="n">
         <v>0</v>
       </c>
+      <c r="H507" t="n">
+        <v>0</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -12119,6 +15165,12 @@
       <c r="G508" t="n">
         <v>0</v>
       </c>
+      <c r="H508" t="n">
+        <v>0</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -12142,6 +15194,12 @@
       <c r="G509" t="n">
         <v>0</v>
       </c>
+      <c r="H509" t="n">
+        <v>0</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -12165,6 +15223,12 @@
       <c r="G510" t="n">
         <v>0</v>
       </c>
+      <c r="H510" t="n">
+        <v>0</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -12188,6 +15252,12 @@
       <c r="G511" t="n">
         <v>0</v>
       </c>
+      <c r="H511" t="n">
+        <v>0</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -12211,6 +15281,12 @@
       <c r="G512" t="n">
         <v>0</v>
       </c>
+      <c r="H512" t="n">
+        <v>0</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -12234,6 +15310,12 @@
       <c r="G513" t="n">
         <v>0</v>
       </c>
+      <c r="H513" t="n">
+        <v>0</v>
+      </c>
+      <c r="I513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -12257,6 +15339,12 @@
       <c r="G514" t="n">
         <v>0</v>
       </c>
+      <c r="H514" t="n">
+        <v>0</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -12280,6 +15368,12 @@
       <c r="G515" t="n">
         <v>0</v>
       </c>
+      <c r="H515" t="n">
+        <v>0</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -12303,6 +15397,12 @@
       <c r="G516" t="n">
         <v>0</v>
       </c>
+      <c r="H516" t="n">
+        <v>0</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -12326,6 +15426,12 @@
       <c r="G517" t="n">
         <v>0</v>
       </c>
+      <c r="H517" t="n">
+        <v>0</v>
+      </c>
+      <c r="I517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -12344,9 +15450,15 @@
         <v>0</v>
       </c>
       <c r="F518" t="n">
+        <v>0</v>
+      </c>
+      <c r="G518" t="n">
         <v>169</v>
       </c>
-      <c r="G518" t="n">
+      <c r="H518" t="n">
+        <v>169</v>
+      </c>
+      <c r="I518" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12367,9 +15479,15 @@
         <v>0</v>
       </c>
       <c r="F519" t="n">
+        <v>0</v>
+      </c>
+      <c r="G519" t="n">
         <v>485</v>
       </c>
-      <c r="G519" t="n">
+      <c r="H519" t="n">
+        <v>485</v>
+      </c>
+      <c r="I519" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12390,9 +15508,15 @@
         <v>0</v>
       </c>
       <c r="F520" t="n">
+        <v>0</v>
+      </c>
+      <c r="G520" t="n">
         <v>412</v>
       </c>
-      <c r="G520" t="n">
+      <c r="H520" t="n">
+        <v>412</v>
+      </c>
+      <c r="I520" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12413,9 +15537,15 @@
         <v>0</v>
       </c>
       <c r="F521" t="n">
+        <v>0</v>
+      </c>
+      <c r="G521" t="n">
         <v>177</v>
       </c>
-      <c r="G521" t="n">
+      <c r="H521" t="n">
+        <v>177</v>
+      </c>
+      <c r="I521" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12441,6 +15571,12 @@
       <c r="G522" t="n">
         <v>0</v>
       </c>
+      <c r="H522" t="n">
+        <v>0</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -12464,6 +15600,12 @@
       <c r="G523" t="n">
         <v>0</v>
       </c>
+      <c r="H523" t="n">
+        <v>0</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -12487,6 +15629,12 @@
       <c r="G524" t="n">
         <v>0</v>
       </c>
+      <c r="H524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -12510,6 +15658,12 @@
       <c r="G525" t="n">
         <v>0</v>
       </c>
+      <c r="H525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -12533,6 +15687,12 @@
       <c r="G526" t="n">
         <v>0</v>
       </c>
+      <c r="H526" t="n">
+        <v>0</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -12556,6 +15716,12 @@
       <c r="G527" t="n">
         <v>0</v>
       </c>
+      <c r="H527" t="n">
+        <v>0</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -12579,6 +15745,12 @@
       <c r="G528" t="n">
         <v>0</v>
       </c>
+      <c r="H528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -12602,6 +15774,12 @@
       <c r="G529" t="n">
         <v>0</v>
       </c>
+      <c r="H529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -12625,6 +15803,12 @@
       <c r="G530" t="n">
         <v>0</v>
       </c>
+      <c r="H530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -12648,6 +15832,12 @@
       <c r="G531" t="n">
         <v>0</v>
       </c>
+      <c r="H531" t="n">
+        <v>0</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -12671,6 +15861,12 @@
       <c r="G532" t="n">
         <v>0</v>
       </c>
+      <c r="H532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -12694,6 +15890,12 @@
       <c r="G533" t="n">
         <v>0</v>
       </c>
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -12717,6 +15919,12 @@
       <c r="G534" t="n">
         <v>0</v>
       </c>
+      <c r="H534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -12740,6 +15948,12 @@
       <c r="G535" t="n">
         <v>0</v>
       </c>
+      <c r="H535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -12763,6 +15977,12 @@
       <c r="G536" t="n">
         <v>0</v>
       </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -12786,6 +16006,12 @@
       <c r="G537" t="n">
         <v>0</v>
       </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -12809,6 +16035,12 @@
       <c r="G538" t="n">
         <v>0</v>
       </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -12832,6 +16064,12 @@
       <c r="G539" t="n">
         <v>0</v>
       </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -12855,6 +16093,12 @@
       <c r="G540" t="n">
         <v>0</v>
       </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -12878,6 +16122,12 @@
       <c r="G541" t="n">
         <v>0</v>
       </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -12901,6 +16151,12 @@
       <c r="G542" t="n">
         <v>0</v>
       </c>
+      <c r="H542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -12924,6 +16180,12 @@
       <c r="G543" t="n">
         <v>0</v>
       </c>
+      <c r="H543" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -12947,6 +16209,12 @@
       <c r="G544" t="n">
         <v>0</v>
       </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -12970,6 +16238,12 @@
       <c r="G545" t="n">
         <v>0</v>
       </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -12993,6 +16267,12 @@
       <c r="G546" t="n">
         <v>0</v>
       </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -13016,6 +16296,12 @@
       <c r="G547" t="n">
         <v>0</v>
       </c>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -13039,6 +16325,12 @@
       <c r="G548" t="n">
         <v>0</v>
       </c>
+      <c r="H548" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -13062,6 +16354,12 @@
       <c r="G549" t="n">
         <v>0</v>
       </c>
+      <c r="H549" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -13085,6 +16383,12 @@
       <c r="G550" t="n">
         <v>0</v>
       </c>
+      <c r="H550" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -13108,6 +16412,12 @@
       <c r="G551" t="n">
         <v>0</v>
       </c>
+      <c r="H551" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -13131,6 +16441,12 @@
       <c r="G552" t="n">
         <v>0</v>
       </c>
+      <c r="H552" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -13154,6 +16470,12 @@
       <c r="G553" t="n">
         <v>0</v>
       </c>
+      <c r="H553" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -13177,6 +16499,12 @@
       <c r="G554" t="n">
         <v>0</v>
       </c>
+      <c r="H554" t="n">
+        <v>0</v>
+      </c>
+      <c r="I554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -13200,6 +16528,12 @@
       <c r="G555" t="n">
         <v>0</v>
       </c>
+      <c r="H555" t="n">
+        <v>0</v>
+      </c>
+      <c r="I555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -13223,6 +16557,12 @@
       <c r="G556" t="n">
         <v>0</v>
       </c>
+      <c r="H556" t="n">
+        <v>0</v>
+      </c>
+      <c r="I556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -13241,9 +16581,15 @@
         <v>0</v>
       </c>
       <c r="F557" t="n">
+        <v>0</v>
+      </c>
+      <c r="G557" t="n">
         <v>68</v>
       </c>
-      <c r="G557" t="n">
+      <c r="H557" t="n">
+        <v>68</v>
+      </c>
+      <c r="I557" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13269,6 +16615,12 @@
       <c r="G558" t="n">
         <v>0</v>
       </c>
+      <c r="H558" t="n">
+        <v>0</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -13292,6 +16644,12 @@
       <c r="G559" t="n">
         <v>0</v>
       </c>
+      <c r="H559" t="n">
+        <v>0</v>
+      </c>
+      <c r="I559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -13315,6 +16673,12 @@
       <c r="G560" t="n">
         <v>0</v>
       </c>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -13338,6 +16702,12 @@
       <c r="G561" t="n">
         <v>0</v>
       </c>
+      <c r="H561" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -13361,6 +16731,12 @@
       <c r="G562" t="n">
         <v>0</v>
       </c>
+      <c r="H562" t="n">
+        <v>0</v>
+      </c>
+      <c r="I562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -13384,6 +16760,12 @@
       <c r="G563" t="n">
         <v>0</v>
       </c>
+      <c r="H563" t="n">
+        <v>0</v>
+      </c>
+      <c r="I563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -13407,6 +16789,12 @@
       <c r="G564" t="n">
         <v>0</v>
       </c>
+      <c r="H564" t="n">
+        <v>0</v>
+      </c>
+      <c r="I564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -13430,6 +16818,12 @@
       <c r="G565" t="n">
         <v>0</v>
       </c>
+      <c r="H565" t="n">
+        <v>0</v>
+      </c>
+      <c r="I565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -13453,6 +16847,12 @@
       <c r="G566" t="n">
         <v>0</v>
       </c>
+      <c r="H566" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -13476,6 +16876,12 @@
       <c r="G567" t="n">
         <v>0</v>
       </c>
+      <c r="H567" t="n">
+        <v>0</v>
+      </c>
+      <c r="I567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -13499,6 +16905,12 @@
       <c r="G568" t="n">
         <v>0</v>
       </c>
+      <c r="H568" t="n">
+        <v>0</v>
+      </c>
+      <c r="I568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -13522,6 +16934,12 @@
       <c r="G569" t="n">
         <v>0</v>
       </c>
+      <c r="H569" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -13545,6 +16963,12 @@
       <c r="G570" t="n">
         <v>0</v>
       </c>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -13568,6 +16992,12 @@
       <c r="G571" t="n">
         <v>0</v>
       </c>
+      <c r="H571" t="n">
+        <v>0</v>
+      </c>
+      <c r="I571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -13591,6 +17021,12 @@
       <c r="G572" t="n">
         <v>0</v>
       </c>
+      <c r="H572" t="n">
+        <v>0</v>
+      </c>
+      <c r="I572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -13614,6 +17050,12 @@
       <c r="G573" t="n">
         <v>0</v>
       </c>
+      <c r="H573" t="n">
+        <v>0</v>
+      </c>
+      <c r="I573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -13637,6 +17079,12 @@
       <c r="G574" t="n">
         <v>0</v>
       </c>
+      <c r="H574" t="n">
+        <v>0</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -13652,12 +17100,18 @@
         <v>0</v>
       </c>
       <c r="E575" t="n">
+        <v>0</v>
+      </c>
+      <c r="F575" t="n">
         <v>92</v>
       </c>
-      <c r="F575" t="n">
-        <v>0</v>
-      </c>
       <c r="G575" t="n">
+        <v>0</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13683,6 +17137,12 @@
       <c r="G576" t="n">
         <v>0</v>
       </c>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -13698,12 +17158,18 @@
         <v>0</v>
       </c>
       <c r="E577" t="n">
+        <v>0</v>
+      </c>
+      <c r="F577" t="n">
         <v>109</v>
       </c>
-      <c r="F577" t="n">
+      <c r="G577" t="n">
         <v>1688</v>
       </c>
-      <c r="G577" t="n">
+      <c r="H577" t="n">
+        <v>1688</v>
+      </c>
+      <c r="I577" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13724,9 +17190,15 @@
         <v>0</v>
       </c>
       <c r="F578" t="n">
+        <v>0</v>
+      </c>
+      <c r="G578" t="n">
         <v>62</v>
       </c>
-      <c r="G578" t="n">
+      <c r="H578" t="n">
+        <v>62</v>
+      </c>
+      <c r="I578" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13744,12 +17216,18 @@
         <v>0</v>
       </c>
       <c r="E579" t="n">
+        <v>0</v>
+      </c>
+      <c r="F579" t="n">
         <v>206</v>
       </c>
-      <c r="F579" t="n">
-        <v>0</v>
-      </c>
       <c r="G579" t="n">
+        <v>0</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13767,12 +17245,18 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
+        <v>0</v>
+      </c>
+      <c r="F580" t="n">
         <v>170</v>
       </c>
-      <c r="F580" t="n">
+      <c r="G580" t="n">
         <v>361</v>
       </c>
-      <c r="G580" t="n">
+      <c r="H580" t="n">
+        <v>361</v>
+      </c>
+      <c r="I580" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13793,9 +17277,15 @@
         <v>0</v>
       </c>
       <c r="F581" t="n">
+        <v>0</v>
+      </c>
+      <c r="G581" t="n">
         <v>350</v>
       </c>
-      <c r="G581" t="n">
+      <c r="H581" t="n">
+        <v>350</v>
+      </c>
+      <c r="I581" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13821,6 +17311,12 @@
       <c r="G582" t="n">
         <v>0</v>
       </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -13842,6 +17338,12 @@
         <v>0</v>
       </c>
       <c r="G583" t="n">
+        <v>0</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="n">
         <v>39</v>
       </c>
     </row>
@@ -13859,12 +17361,18 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
+        <v>0</v>
+      </c>
+      <c r="F584" t="n">
         <v>607</v>
       </c>
-      <c r="F584" t="n">
-        <v>0</v>
-      </c>
       <c r="G584" t="n">
+        <v>0</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="n">
         <v>9</v>
       </c>
     </row>
@@ -13885,9 +17393,15 @@
         <v>0</v>
       </c>
       <c r="F585" t="n">
+        <v>0</v>
+      </c>
+      <c r="G585" t="n">
         <v>304</v>
       </c>
-      <c r="G585" t="n">
+      <c r="H585" t="n">
+        <v>304</v>
+      </c>
+      <c r="I585" t="n">
         <v>81</v>
       </c>
     </row>
@@ -13908,9 +17422,15 @@
         <v>0</v>
       </c>
       <c r="F586" t="n">
+        <v>0</v>
+      </c>
+      <c r="G586" t="n">
         <v>301</v>
       </c>
-      <c r="G586" t="n">
+      <c r="H586" t="n">
+        <v>301</v>
+      </c>
+      <c r="I586" t="n">
         <v>593</v>
       </c>
     </row>
@@ -13936,6 +17456,12 @@
       <c r="G587" t="n">
         <v>0</v>
       </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -13959,6 +17485,12 @@
       <c r="G588" t="n">
         <v>0</v>
       </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -13982,6 +17514,12 @@
       <c r="G589" t="n">
         <v>0</v>
       </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -14005,6 +17543,12 @@
       <c r="G590" t="n">
         <v>0</v>
       </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -14028,6 +17572,12 @@
       <c r="G591" t="n">
         <v>0</v>
       </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -14051,6 +17601,12 @@
       <c r="G592" t="n">
         <v>0</v>
       </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -14074,6 +17630,12 @@
       <c r="G593" t="n">
         <v>0</v>
       </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -14092,9 +17654,15 @@
         <v>0</v>
       </c>
       <c r="F594" t="n">
+        <v>0</v>
+      </c>
+      <c r="G594" t="n">
         <v>619</v>
       </c>
-      <c r="G594" t="n">
+      <c r="H594" t="n">
+        <v>619</v>
+      </c>
+      <c r="I594" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14120,6 +17688,12 @@
       <c r="G595" t="n">
         <v>0</v>
       </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -14143,6 +17717,12 @@
       <c r="G596" t="n">
         <v>0</v>
       </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -14166,6 +17746,12 @@
       <c r="G597" t="n">
         <v>0</v>
       </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -14189,6 +17775,12 @@
       <c r="G598" t="n">
         <v>0</v>
       </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -14212,6 +17804,12 @@
       <c r="G599" t="n">
         <v>0</v>
       </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -14235,6 +17833,12 @@
       <c r="G600" t="n">
         <v>0</v>
       </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -14258,6 +17862,12 @@
       <c r="G601" t="n">
         <v>0</v>
       </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -14281,6 +17891,12 @@
       <c r="G602" t="n">
         <v>0</v>
       </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -14304,6 +17920,12 @@
       <c r="G603" t="n">
         <v>0</v>
       </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -14327,6 +17949,12 @@
       <c r="G604" t="n">
         <v>0</v>
       </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -14348,6 +17976,12 @@
         <v>0</v>
       </c>
       <c r="G605" t="n">
+        <v>0</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14373,6 +18007,12 @@
       <c r="G606" t="n">
         <v>0</v>
       </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -14396,6 +18036,12 @@
       <c r="G607" t="n">
         <v>0</v>
       </c>
+      <c r="H607" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -14419,6 +18065,12 @@
       <c r="G608" t="n">
         <v>0</v>
       </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
@@ -14442,6 +18094,12 @@
       <c r="G609" t="n">
         <v>0</v>
       </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
@@ -14465,6 +18123,12 @@
       <c r="G610" t="n">
         <v>0</v>
       </c>
+      <c r="H610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
@@ -14488,6 +18152,12 @@
       <c r="G611" t="n">
         <v>0</v>
       </c>
+      <c r="H611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
@@ -14511,6 +18181,12 @@
       <c r="G612" t="n">
         <v>0</v>
       </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -14534,6 +18210,12 @@
       <c r="G613" t="n">
         <v>0</v>
       </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -14557,6 +18239,12 @@
       <c r="G614" t="n">
         <v>0</v>
       </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -14580,6 +18268,12 @@
       <c r="G615" t="n">
         <v>0</v>
       </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -14598,9 +18292,15 @@
         <v>0</v>
       </c>
       <c r="F616" t="n">
+        <v>0</v>
+      </c>
+      <c r="G616" t="n">
         <v>587</v>
       </c>
-      <c r="G616" t="n">
+      <c r="H616" t="n">
+        <v>587</v>
+      </c>
+      <c r="I616" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14626,6 +18326,12 @@
       <c r="G617" t="n">
         <v>0</v>
       </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
@@ -14644,9 +18350,15 @@
         <v>0</v>
       </c>
       <c r="F618" t="n">
+        <v>0</v>
+      </c>
+      <c r="G618" t="n">
         <v>58</v>
       </c>
-      <c r="G618" t="n">
+      <c r="H618" t="n">
+        <v>58</v>
+      </c>
+      <c r="I618" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14672,6 +18384,12 @@
       <c r="G619" t="n">
         <v>0</v>
       </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
@@ -14695,6 +18413,12 @@
       <c r="G620" t="n">
         <v>0</v>
       </c>
+      <c r="H620" t="n">
+        <v>0</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
@@ -14718,6 +18442,12 @@
       <c r="G621" t="n">
         <v>0</v>
       </c>
+      <c r="H621" t="n">
+        <v>0</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
@@ -14741,6 +18471,12 @@
       <c r="G622" t="n">
         <v>0</v>
       </c>
+      <c r="H622" t="n">
+        <v>0</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
@@ -14764,6 +18500,12 @@
       <c r="G623" t="n">
         <v>0</v>
       </c>
+      <c r="H623" t="n">
+        <v>0</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
@@ -14787,6 +18529,12 @@
       <c r="G624" t="n">
         <v>0</v>
       </c>
+      <c r="H624" t="n">
+        <v>0</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -14810,6 +18558,12 @@
       <c r="G625" t="n">
         <v>0</v>
       </c>
+      <c r="H625" t="n">
+        <v>0</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -14828,9 +18582,15 @@
         <v>0</v>
       </c>
       <c r="F626" t="n">
+        <v>0</v>
+      </c>
+      <c r="G626" t="n">
         <v>43</v>
       </c>
-      <c r="G626" t="n">
+      <c r="H626" t="n">
+        <v>43</v>
+      </c>
+      <c r="I626" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14851,9 +18611,15 @@
         <v>0</v>
       </c>
       <c r="F627" t="n">
+        <v>0</v>
+      </c>
+      <c r="G627" t="n">
         <v>360</v>
       </c>
-      <c r="G627" t="n">
+      <c r="H627" t="n">
+        <v>360</v>
+      </c>
+      <c r="I627" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14874,9 +18640,15 @@
         <v>0</v>
       </c>
       <c r="F628" t="n">
+        <v>0</v>
+      </c>
+      <c r="G628" t="n">
         <v>108</v>
       </c>
-      <c r="G628" t="n">
+      <c r="H628" t="n">
+        <v>108</v>
+      </c>
+      <c r="I628" t="n">
         <v>0</v>
       </c>
     </row>
